--- a/table/Table_S7_FT_candidate_gene_at_sweep_interaction_DMR.xlsx
+++ b/table/Table_S7_FT_candidate_gene_at_sweep_interaction_DMR.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>Table S7. Flowering time candidate genes located at sweep and interacting DMRs.</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -57,16 +55,7 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>days to anthesis</t>
-  </si>
-  <si>
-    <t>days to silk</t>
-  </si>
-  <si>
     <t>Anthesis silking interval</t>
-  </si>
-  <si>
-    <t>Anthesis silking interval</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -85,9 +74,6 @@
   </si>
   <si>
     <t>Zm00001d050565</t>
-  </si>
-  <si>
-    <t>Zm00001d050565</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -112,157 +98,36 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Zm00001d042131</t>
+  </si>
+  <si>
+    <t>Zm00001d038937</t>
+  </si>
+  <si>
+    <t>Zm00001d025692</t>
+  </si>
+  <si>
+    <t>Zm00001d025979</t>
+  </si>
+  <si>
+    <t>Zm00001d034240</t>
+  </si>
+  <si>
+    <t>Zm00001d039165</t>
+  </si>
+  <si>
+    <t>Zm00001d007108</t>
+  </si>
+  <si>
+    <t>Interacting DMR</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Zm00001d029946</t>
-  </si>
-  <si>
-    <t>Zm00001d042131</t>
-  </si>
-  <si>
-    <t>Zm00001d038937</t>
-  </si>
-  <si>
-    <t>Zm00001d025692</t>
-  </si>
-  <si>
-    <t>Zm00001d025979</t>
-  </si>
-  <si>
-    <t>Zm00001d034240</t>
-  </si>
-  <si>
-    <t>Zm00001d039165</t>
-  </si>
-  <si>
-    <t>Zm00001d007108</t>
-  </si>
-  <si>
-    <t>Interacting DMR</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zm00001d029946</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>days to tassel</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Days to tassel</t>
-  </si>
-  <si>
-    <t>The genetic architecture of maize height</t>
-  </si>
-  <si>
-    <t>Genome-wide association study dissects yield components associated with low-phosphorus stress tolerance in maize</t>
-  </si>
-  <si>
-    <t>Association mapping across numerous traits reveals patterns of functional variation in maize</t>
-  </si>
-  <si>
-    <t>The genetic architecture of maize height</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason A Peiffer, Maria C Romay, Michael A Gore, Sherry A Flint-Garcia,Zhiwu Zhang, Mark J Millard, Candice AC Gardner, Michael D McMullen,James B Holland, Peter J Bradbury, et al. The genetic architecture of maizeheight.Genetics, 196(4):1337–1356, 2014.</t>
-  </si>
-  <si>
-    <t>Genome-wide association study dissects yield components associated with low-phosphorus stress tolerance in maize</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[3] Cheng Xu, Hongwei Zhang, Jianhao Sun, Zifeng Guo, Cheng Zou, Wen-Xue Li, Chuanxiao Xie, Changling Huang, Ruineng Xu, Hong Liao, et al. Genome-wide association study dissects yield components associated withlow-phosphorus stress tolerance in maize. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Theoretical and applied genetics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,131(8):1699–1714, 2018.</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[3] Cheng Xu, Hongwei Zhang, Jianhao Sun, Zifeng Guo, Cheng Zou, Wen-Xue Li, Chuanxiao Xie, Changling Huang, Ruineng Xu, Hong Liao, et al. Genome-wide association study dissects yield components associated withlow-phosphorus stress tolerance in maize. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Theoretical and applied genetics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,131(8):1699–1714, 2018.</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Association mapping across numerous traits reveals patterns of functional variation in maize</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason G Wallace, Peter J Bradbury, Nengyi Zhang, Yves Gibon, Mark Stitt,and Edward S Buckler. Association mapping across numerous traits revealspatterns  of  functional  variation  in  maize.PLoS Genet,  10(12):e1004845,2014.</t>
-  </si>
-  <si>
-    <t>Identification of genetic variants associated with maize flowering time using an extremely large multi-genetic background population</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[4] Yong-xiang Li, Chunhui Li, Peter J Bradbury, Xiaolei Liu, Fei Lu, Cinta MRomay, Jeffrey C Glaubitz, Xun Wu, Bo Peng, Yunsu Shi, et al. Identi-fication of genetic variants associated with maize flowering time using anextremely large multi-genetic background population. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Plant Journal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,86(5):391–402, 2016.</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[1]</t>
@@ -440,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,15 +477,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1099,7 +955,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1111,22 +967,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,20 +986,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,87 +1049,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="42"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1683,7 +1450,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1700,48 +1467,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1753,24 +1520,24 @@
         <v>95966550</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>19</v>
+      <c r="A4" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -1782,24 +1549,24 @@
         <v>101168118</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
+      <c r="A5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -1811,24 +1578,24 @@
         <v>128733682</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
@@ -1840,24 +1607,24 @@
         <v>135130431</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>35</v>
+      <c r="A7" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1869,24 +1636,24 @@
         <v>95966550</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1898,24 +1665,24 @@
         <v>287657607</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>33</v>
+      <c r="A9" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1927,24 +1694,24 @@
         <v>222400422</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1956,24 +1723,24 @@
         <v>152448634</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>24</v>
+      <c r="A11" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -1985,24 +1752,24 @@
         <v>128733682</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -2014,161 +1781,161 @@
         <v>167326148</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>6</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>171572024</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>171572254</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>34</v>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8">
+        <v>126421825</v>
+      </c>
+      <c r="F14" s="8">
+        <v>126422141</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="11">
+    </row>
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10">
         <v>10</v>
       </c>
-      <c r="E14" s="11">
-        <v>126421825</v>
-      </c>
-      <c r="F14" s="11">
-        <v>126422141</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="13">
-        <v>10</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>135130116</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>135130431</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>34</v>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A7:I15">
@@ -2208,218 +1975,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>